--- a/analysis_workspace_test/unit_test.xlsx
+++ b/analysis_workspace_test/unit_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\localhost\C$\Users\frnkv\source\repos\analysis_workspace\analysis_workspace_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79D1236-9B9B-4403-8DD4-267AF961C419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77F6E3D-0264-49E2-9626-9018EE104E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>base_collection</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>geom_category</t>
+  </si>
+  <si>
+    <t>basic;includes?();an_element();size;ref_collections</t>
+  </si>
+  <si>
+    <t>base_filter_collection</t>
+  </si>
+  <si>
+    <t>base_filter_geometry_collection</t>
   </si>
 </sst>
 </file>
@@ -155,14 +164,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,245 +456,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -692,8 +741,11 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -703,19 +755,61 @@
       <c r="C25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
